--- a/outputs_report/Table_RiskGov_ERC_tax_risk.xlsx
+++ b/outputs_report/Table_RiskGov_ERC_tax_risk.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ERC_tax_high2" r:id="rId3" sheetId="1"/>
-    <sheet name="ERC_tax_high15" r:id="rId4" sheetId="2"/>
+    <sheet name="ERC_tax_high1" r:id="rId3" sheetId="1"/>
+    <sheet name="ERC_tax_high2" r:id="rId4" sheetId="2"/>
     <sheet name="ERC_tax_hike" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
@@ -25,6 +25,60 @@
     <t>Amort</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>ERC_tax_PITState_a1_high1</t>
+  </si>
+  <si>
+    <t>ERC_tax_salesState_a1_high1</t>
+  </si>
+  <si>
+    <t>ERC_tax_local_a1_high1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>port70_30</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Discount rate = 7.5%</t>
+  </si>
+  <si>
+    <t>Discount rate = 6.0%</t>
+  </si>
+  <si>
+    <t>Fast repayment of UAAL</t>
+  </si>
+  <si>
+    <t>Slow repayment of UAAL</t>
+  </si>
+  <si>
     <t>ERC_tax_PITState_a1_high2</t>
   </si>
   <si>
@@ -32,60 +86,6 @@
   </si>
   <si>
     <t>ERC_tax_local_a1_high2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>port70_30</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>Discount rate = 7.5%</t>
-  </si>
-  <si>
-    <t>Discount rate = 6.0%</t>
-  </si>
-  <si>
-    <t>Fast repayment of UAAL</t>
-  </si>
-  <si>
-    <t>Slow repayment of UAAL</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>ERC_tax_PITState_a1_high15</t>
-  </si>
-  <si>
-    <t>ERC_tax_salesState_a1_high15</t>
-  </si>
-  <si>
-    <t>ERC_tax_local_a1_high15</t>
   </si>
   <si>
     <t>ERC_tax_PITState_a1_hike</t>
@@ -165,188 +165,215 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2045</v>
+        <v>30.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143</v>
+        <v>0.33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0815</v>
+        <v>0.2865</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.1585</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.078</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.0095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0195</v>
+        <v>30.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0035</v>
+        <v>0.168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.0975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>30.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1005</v>
+        <v>30.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0835</v>
+        <v>0.2455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07</v>
+        <v>0.2465</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0525</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.0275</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001</v>
+        <v>30.0</v>
       </c>
       <c r="F8" t="n">
-        <v>5.0E-4</v>
+        <v>0.057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0.044</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G9" t="n">
         <v>5.0E-4</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -375,223 +402,196 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>30.0</v>
+        <v>0.3485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.45</v>
+        <v>0.302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3945</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>30.0</v>
+        <v>0.0665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396</v>
+        <v>0.012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3195</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1195</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0225</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>0.1135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0785</v>
+        <v>0.0345</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>30.0</v>
+        <v>0.2655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3905</v>
+        <v>0.2705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.408</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>0.009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.308</v>
+        <v>5.0E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3015</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2905</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0205</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.01</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>30.0</v>
+        <v>0.035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0195</v>
+        <v>0.0085</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>30.0</v>
@@ -660,16 +660,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>30.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v>30.0</v>
@@ -712,16 +712,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>30.0</v>
@@ -738,42 +738,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>30.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3815</v>
+        <v>0.3795</v>
       </c>
       <c r="G6" t="n">
-        <v>0.363</v>
+        <v>0.3675</v>
       </c>
       <c r="H6" t="n">
-        <v>0.339</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>30.0</v>
@@ -790,42 +790,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>30.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.351</v>
+        <v>0.3365</v>
       </c>
       <c r="G8" t="n">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3205</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>30.0</v>

--- a/outputs_report/Table_RiskGov_ERC_tax_risk.xlsx
+++ b/outputs_report/Table_RiskGov_ERC_tax_risk.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSimMacro\PenSimMacro_Data\outputs_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07540FFA-132A-4C33-9904-800BBA5AD188}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B5E515-B858-483F-8233-03C8D7E5AEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERC_tax_high1" sheetId="1" r:id="rId1"/>
     <sheet name="ERC_tax_high2" sheetId="2" r:id="rId2"/>
     <sheet name="ERC_tax_hike" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -481,15 +489,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="9" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,16 +542,16 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.106</v>
       </c>
       <c r="G2">
-        <v>0.17749999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="H2">
-        <v>0.16450000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="I2">
-        <v>0.22750000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,16 +571,16 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>8.8999999999999996E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G3">
-        <v>0.17199999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="H3">
-        <v>0.16600000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="I3">
-        <v>0.22800000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,16 +600,16 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>1.95E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>0.111</v>
+        <v>0.1195</v>
       </c>
       <c r="H4">
-        <v>0.10050000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.17849999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,16 +629,16 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>6.8000000000000005E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G5">
-        <v>9.5000000000000001E-2</v>
+        <v>0.112</v>
       </c>
       <c r="H5">
-        <v>8.8499999999999995E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I5">
-        <v>0.1065</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,16 +658,16 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>6.3500000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>9.2999999999999999E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="H6">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I6">
-        <v>0.104</v>
+        <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,16 +687,16 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>1.2500000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G7">
-        <v>4.9000000000000002E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>4.0500000000000001E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="I7">
-        <v>7.2999999999999995E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -712,13 +719,13 @@
         <v>1E-3</v>
       </c>
       <c r="G8">
-        <v>2.4500000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>1.6E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I8">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -741,13 +748,13 @@
         <v>1E-3</v>
       </c>
       <c r="G9">
-        <v>3.15E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="H9">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I9">
-        <v>7.9000000000000001E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -770,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.1000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H10">
-        <v>1.2999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I10">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,16 +803,16 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G11">
-        <v>4.0000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="H11">
-        <v>2.5000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="I11">
-        <v>1.0500000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H12">
-        <v>3.5000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I12">
-        <v>1.0500000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.4999999999999997E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>2.5000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I13">
-        <v>1.2E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -878,9 +885,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -919,16 +923,16 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>0.2515</v>
       </c>
       <c r="F2">
-        <v>0.28100000000000003</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="G2">
-        <v>0.27250000000000002</v>
+        <v>0.28149999999999997</v>
       </c>
       <c r="H2">
-        <v>0.33100000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,16 +949,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>0.1075</v>
+        <v>0.122</v>
       </c>
       <c r="F3">
-        <v>0.1915</v>
+        <v>0.20449999999999999</v>
       </c>
       <c r="G3">
-        <v>0.17899999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="H3">
-        <v>0.24349999999999999</v>
+        <v>0.24049999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.8000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>1.7000000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="H4">
-        <v>7.9000000000000001E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,16 +1001,16 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>0.20100000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F5">
+        <v>0.2505</v>
+      </c>
+      <c r="G5">
+        <v>0.23</v>
+      </c>
+      <c r="H5">
         <v>0.22550000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.2195</v>
-      </c>
-      <c r="H5">
-        <v>0.2235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,16 +1027,16 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>8.3000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F6">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="G6">
-        <v>0.104</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H6">
-        <v>0.11749999999999999</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="G7">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7">
-        <v>1.55E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1127,16 +1131,16 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F10">
-        <v>6.5500000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G10">
-        <v>5.1999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>0.13150000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,16 +1209,16 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F13">
-        <v>2.0500000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>1.55E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="H13">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1227,14 +1231,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="6" max="9" width="30.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1279,16 +1279,16 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>0.441</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="G2">
-        <v>0.48649999999999999</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="H2">
-        <v>0.47749999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="I2">
-        <v>0.54700000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,16 +1308,16 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>0.23649999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="G3">
-        <v>0.314</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H3">
-        <v>0.30449999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="I3">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,16 +1337,16 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>1.2E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G4">
-        <v>3.0499999999999999E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>2.4500000000000001E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="I4">
-        <v>6.8500000000000005E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,16 +1366,16 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>0.42949999999999999</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="G5">
-        <v>0.442</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="H5">
-        <v>0.4395</v>
+        <v>0.441</v>
       </c>
       <c r="I5">
-        <v>0.434</v>
+        <v>0.42849999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1395,16 +1395,16 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>0.20899999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="G6">
-        <v>0.23250000000000001</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="H6">
-        <v>0.2235</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="I6">
-        <v>0.24299999999999999</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,16 +1424,16 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>5.0000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G7">
-        <v>1.0500000000000001E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="H7">
-        <v>7.4999999999999997E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I7">
-        <v>1.4500000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>0.4365</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G8">
-        <v>0.48149999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="H8">
-        <v>0.47399999999999998</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="I8">
-        <v>0.52600000000000002</v>
+        <v>0.52449999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,16 +1482,16 @@
         <v>30</v>
       </c>
       <c r="F9">
-        <v>0.23749999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="G9">
-        <v>0.30299999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H9">
-        <v>0.28949999999999998</v>
+        <v>0.3105</v>
       </c>
       <c r="I9">
-        <v>0.3715</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,16 +1511,16 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>9.4999999999999998E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="G10">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H10">
-        <v>1.95E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I10">
-        <v>7.0499999999999993E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,16 +1540,16 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>0.42399999999999999</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="G11">
-        <v>0.4375</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="H11">
-        <v>0.435</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="I11">
-        <v>0.42699999999999999</v>
+        <v>0.39750000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,13 +1569,13 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <v>0.224</v>
+        <v>0.2455</v>
       </c>
       <c r="G12">
-        <v>0.23499999999999999</v>
+        <v>0.26550000000000001</v>
       </c>
       <c r="H12">
-        <v>0.23200000000000001</v>
+        <v>0.2465</v>
       </c>
       <c r="I12">
         <v>0.247</v>
@@ -1598,16 +1598,16 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>1.0500000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="H13">
-        <v>8.9999999999999993E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I13">
-        <v>1.95E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
